--- a/Energy Consumption35.xlsx
+++ b/Energy Consumption35.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.022707492523536</v>
+        <v>3.869511384177685</v>
       </c>
       <c r="C2" t="n">
-        <v>1.555851881726676</v>
+        <v>1.707596222450402</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.445891728238417</v>
+        <v>4.223292528482742</v>
       </c>
       <c r="C3" t="n">
-        <v>3.360787962013277</v>
+        <v>3.117793797679763</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.920616338157936</v>
+        <v>6.496134057827351</v>
       </c>
       <c r="C4" t="n">
-        <v>4.930787185649188</v>
+        <v>5.218938197714804</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.410182903220356</v>
+        <v>11.3329550434594</v>
       </c>
       <c r="C5" t="n">
-        <v>6.369449586763749</v>
+        <v>7.032728163196263</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.76816953827281</v>
+        <v>11.89843846762003</v>
       </c>
       <c r="C6" t="n">
-        <v>8.510632749064509</v>
+        <v>8.486844331433653</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.20281548600352</v>
+        <v>12.8945500185167</v>
       </c>
       <c r="C7" t="n">
-        <v>9.947768617231246</v>
+        <v>10.20019337189851</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.28929242221558</v>
+        <v>15.19166175243297</v>
       </c>
       <c r="C8" t="n">
-        <v>12.01954779133841</v>
+        <v>11.94443904954075</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.04516403623962</v>
+        <v>16.22120194155941</v>
       </c>
       <c r="C9" t="n">
-        <v>13.54127975295479</v>
+        <v>13.89398399358445</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.96326601006193</v>
+        <v>16.87591993044459</v>
       </c>
       <c r="C10" t="n">
-        <v>15.32004558879885</v>
+        <v>16.28353721578357</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.13841148820204</v>
+        <v>19.42619500186913</v>
       </c>
       <c r="C11" t="n">
-        <v>16.99656814619252</v>
+        <v>17.99682078664295</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.15202588260588</v>
+        <v>19.68594413535853</v>
       </c>
       <c r="C12" t="n">
-        <v>18.71799106412682</v>
+        <v>19.80095201177858</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.36997556507438</v>
+        <v>21.62985158346695</v>
       </c>
       <c r="C13" t="n">
-        <v>20.38553508885761</v>
+        <v>21.49060152087361</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.01157817603359</v>
+        <v>23.12136261958922</v>
       </c>
       <c r="C14" t="n">
-        <v>22.0124396879241</v>
+        <v>23.3953018171421</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.48033363358181</v>
+        <v>25.72256442315136</v>
       </c>
       <c r="C15" t="n">
-        <v>23.66311047465978</v>
+        <v>24.97892517350413</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.06221869059782</v>
+        <v>31.01143679269622</v>
       </c>
       <c r="C16" t="n">
-        <v>25.58532823035281</v>
+        <v>26.47845004308031</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.3472585269961</v>
+        <v>35.57861987815435</v>
       </c>
       <c r="C17" t="n">
-        <v>27.06874499545389</v>
+        <v>28.34693683098946</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41.49467829759032</v>
+        <v>35.92067933791748</v>
       </c>
       <c r="C18" t="n">
-        <v>28.5805722201215</v>
+        <v>29.981913006492</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.9717844628461</v>
+        <v>36.19852036439411</v>
       </c>
       <c r="C19" t="n">
-        <v>30.47131553893212</v>
+        <v>31.52742380049328</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.09472097077061</v>
+        <v>36.38379672189063</v>
       </c>
       <c r="C20" t="n">
-        <v>32.02917149191177</v>
+        <v>33.20120034966937</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.54781764075469</v>
+        <v>40.14848560852405</v>
       </c>
       <c r="C21" t="n">
-        <v>34.25951595903968</v>
+        <v>34.8496464834083</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.20801521868692</v>
+        <v>42.08506123289358</v>
       </c>
       <c r="C22" t="n">
-        <v>36.27954093650724</v>
+        <v>36.45304452571201</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.78600626953695</v>
+        <v>43.77644943764468</v>
       </c>
       <c r="C23" t="n">
-        <v>37.85576524148518</v>
+        <v>38.02218668434978</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.04013640417881</v>
+        <v>48.75728942615456</v>
       </c>
       <c r="C24" t="n">
-        <v>39.29143003286967</v>
+        <v>39.85955706143929</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.24995958824001</v>
+        <v>50.53469804415509</v>
       </c>
       <c r="C25" t="n">
-        <v>41.5706393589448</v>
+        <v>41.4990801615341</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54.93065574196811</v>
+        <v>53.59037083383997</v>
       </c>
       <c r="C26" t="n">
-        <v>43.14662590661859</v>
+        <v>43.62629840698037</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.79147342534291</v>
+        <v>54.5304760030787</v>
       </c>
       <c r="C27" t="n">
-        <v>44.82639155080496</v>
+        <v>45.41338134816947</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.85299969290196</v>
+        <v>57.26900158737699</v>
       </c>
       <c r="C28" t="n">
-        <v>46.19039900897283</v>
+        <v>47.71939195090843</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>60.96654978089175</v>
+        <v>60.658345521985</v>
       </c>
       <c r="C29" t="n">
-        <v>47.97028853965821</v>
+        <v>49.05176400210095</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62.26896531414602</v>
+        <v>61.2488003530978</v>
       </c>
       <c r="C30" t="n">
-        <v>49.82286180197443</v>
+        <v>50.97934376722848</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.03408106362723</v>
+        <v>62.36075767500014</v>
       </c>
       <c r="C31" t="n">
-        <v>51.36267580218172</v>
+        <v>52.38356825665204</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.20342073714296</v>
+        <v>62.72145846868706</v>
       </c>
       <c r="C32" t="n">
-        <v>52.91234280825188</v>
+        <v>54.02176661508813</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63.83375162767648</v>
+        <v>68.67692755083833</v>
       </c>
       <c r="C33" t="n">
-        <v>54.87889895626825</v>
+        <v>55.69332249942369</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.56836304735096</v>
+        <v>68.98567947486916</v>
       </c>
       <c r="C34" t="n">
-        <v>56.08380787035433</v>
+        <v>57.31135354242321</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.12349599376371</v>
+        <v>71.08342223268404</v>
       </c>
       <c r="C35" t="n">
-        <v>57.76943951177486</v>
+        <v>59.44436527019901</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.04951073801131</v>
+        <v>71.48431759889107</v>
       </c>
       <c r="C36" t="n">
-        <v>59.93729024875179</v>
+        <v>61.00311326219551</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69.12896583309703</v>
+        <v>73.99614573686954</v>
       </c>
       <c r="C37" t="n">
-        <v>61.7022781041121</v>
+        <v>63.19461093187064</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.21877029849642</v>
+        <v>74.32281553909783</v>
       </c>
       <c r="C38" t="n">
-        <v>63.04230745897087</v>
+        <v>65.11716001809319</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.05491600051279</v>
+        <v>75.23699641228237</v>
       </c>
       <c r="C39" t="n">
-        <v>64.91313296418453</v>
+        <v>67.42830037898507</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>73.20701832256016</v>
+        <v>76.60464258122951</v>
       </c>
       <c r="C40" t="n">
-        <v>67.02435063012206</v>
+        <v>68.66591502085771</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>78.167369980725</v>
+        <v>77.91010054956246</v>
       </c>
       <c r="C41" t="n">
-        <v>68.62995139897694</v>
+        <v>71.47232034258454</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>79.68758787541665</v>
+        <v>80.06493197273107</v>
       </c>
       <c r="C42" t="n">
-        <v>70.89038367241585</v>
+        <v>73.180698696758</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>81.07875026216121</v>
+        <v>82.05554453036711</v>
       </c>
       <c r="C43" t="n">
-        <v>72.40927685150463</v>
+        <v>74.93723382676154</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82.89884867444481</v>
+        <v>82.56367298388226</v>
       </c>
       <c r="C44" t="n">
-        <v>74.41868550443941</v>
+        <v>76.86729913136263</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84.84452774960938</v>
+        <v>85.98439130149596</v>
       </c>
       <c r="C45" t="n">
-        <v>75.93184575270203</v>
+        <v>78.4603629533339</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>85.6685738900143</v>
+        <v>87.66164533876054</v>
       </c>
       <c r="C46" t="n">
-        <v>77.71082369703471</v>
+        <v>80.59731627271253</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>86.36456207780634</v>
+        <v>89.06810087745794</v>
       </c>
       <c r="C47" t="n">
-        <v>79.03398922342845</v>
+        <v>82.10491810817611</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87.1023468486687</v>
+        <v>91.80822857006503</v>
       </c>
       <c r="C48" t="n">
-        <v>80.85136411471912</v>
+        <v>83.85674076038288</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>88.60970106365244</v>
+        <v>93.17572466200814</v>
       </c>
       <c r="C49" t="n">
-        <v>82.74128082393874</v>
+        <v>85.44711790686908</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>92.05675579737196</v>
+        <v>97.40526171535366</v>
       </c>
       <c r="C50" t="n">
-        <v>84.37691441349435</v>
+        <v>86.92520729805804</v>
       </c>
     </row>
   </sheetData>
